--- a/true_observations_apenheul.xlsx
+++ b/true_observations_apenheul.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sterr\Desktop\Utrecht University\Major Research Project\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Development\apenkijkschema-sterre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498699F0-D96B-42D2-90C6-0A6CE8F361F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AC1727-0B8E-45DC-A3ED-78EA1E57A54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D5A8740-35D6-44AA-9CD7-C2131379EB5A}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{1D5A8740-35D6-44AA-9CD7-C2131379EB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="151">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Individual</t>
-  </si>
-  <si>
-    <t>Morning/afternoon</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Time (min)</t>
-  </si>
-  <si>
     <t>4.30</t>
   </si>
   <si>
@@ -138,9 +129,6 @@
     <t>10.23</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>GR with NO, and at 16.00 FA and SA of SG?, and OS.</t>
   </si>
   <si>
@@ -490,6 +478,15 @@
   </si>
   <si>
     <t>8.48</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Timeslot</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -531,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -547,7 +544,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -845,36 +842,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C16F14-FDEB-465D-A5CA-550FBA4D6DB7}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -882,10 +879,10 @@
         <v>44587</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -893,10 +890,10 @@
         <v>44587</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -904,10 +901,10 @@
         <v>44587</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -915,10 +912,10 @@
         <v>44587</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -926,10 +923,10 @@
         <v>44587</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -937,10 +934,10 @@
         <v>44587</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -948,10 +945,10 @@
         <v>44587</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -959,16 +956,16 @@
         <v>44600</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -976,19 +973,19 @@
         <v>44600</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -996,19 +993,19 @@
         <v>44600</v>
       </c>
       <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1016,19 +1013,19 @@
         <v>44600</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1036,19 +1033,19 @@
         <v>44600</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1056,19 +1053,19 @@
         <v>44600</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1076,19 +1073,19 @@
         <v>44600</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1096,22 +1093,22 @@
         <v>44601</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1119,22 +1116,22 @@
         <v>44601</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1142,22 +1139,19 @@
         <v>44601</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1165,22 +1159,22 @@
         <v>44601</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1188,22 +1182,19 @@
         <v>44601</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1211,22 +1202,22 @@
         <v>44601</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1234,22 +1225,22 @@
         <v>44601</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1257,22 +1248,22 @@
         <v>44601</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1280,22 +1271,22 @@
         <v>44601</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1303,22 +1294,22 @@
         <v>44601</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1326,22 +1317,22 @@
         <v>44601</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1349,22 +1340,22 @@
         <v>44601</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -1372,22 +1363,22 @@
         <v>44602</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1395,22 +1386,22 @@
         <v>44602</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1418,22 +1409,22 @@
         <v>44602</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -1441,22 +1432,22 @@
         <v>44602</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1464,22 +1455,22 @@
         <v>44602</v>
       </c>
       <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
         <v>13</v>
       </c>
-      <c r="D32" t="s">
-        <v>15</v>
-      </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1487,22 +1478,22 @@
         <v>44602</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -1510,22 +1501,22 @@
         <v>44603</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6</v>
       </c>
@@ -1533,22 +1524,22 @@
         <v>44603</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
         <v>68</v>
       </c>
-      <c r="E35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" t="s">
-        <v>72</v>
-      </c>
       <c r="G35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
@@ -1556,19 +1547,19 @@
         <v>44603</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
@@ -1576,22 +1567,22 @@
         <v>44603</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6</v>
       </c>
@@ -1599,22 +1590,22 @@
         <v>44603</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" t="s">
         <v>75</v>
       </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
@@ -1622,22 +1613,22 @@
         <v>44603</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
@@ -1645,22 +1636,22 @@
         <v>44603</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -1668,22 +1659,22 @@
         <v>44603</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" t="s">
         <v>82</v>
       </c>
-      <c r="E41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -1691,19 +1682,19 @@
         <v>44603</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1711,19 +1702,19 @@
         <v>44603</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6</v>
       </c>
@@ -1731,19 +1722,19 @@
         <v>44603</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
       </c>
-      <c r="E44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>7</v>
       </c>
@@ -1751,22 +1742,22 @@
         <v>44607</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>7</v>
       </c>
@@ -1774,22 +1765,22 @@
         <v>44607</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7</v>
       </c>
@@ -1797,22 +1788,22 @@
         <v>44607</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7</v>
       </c>
@@ -1820,19 +1811,19 @@
         <v>44607</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7</v>
       </c>
@@ -1840,19 +1831,19 @@
         <v>44607</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7</v>
       </c>
@@ -1860,22 +1851,22 @@
         <v>44607</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G50" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7</v>
       </c>
@@ -1883,16 +1874,16 @@
         <v>44607</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
@@ -1900,19 +1891,19 @@
         <v>44607</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>7</v>
       </c>
@@ -1920,19 +1911,19 @@
         <v>44607</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>7</v>
       </c>
@@ -1940,19 +1931,19 @@
         <v>44607</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>7</v>
       </c>
@@ -1960,19 +1951,19 @@
         <v>44607</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
@@ -1980,16 +1971,16 @@
         <v>44608</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E56" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7</v>
       </c>
@@ -1997,19 +1988,19 @@
         <v>44608</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
@@ -2017,22 +2008,22 @@
         <v>44608</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
@@ -2040,19 +2031,19 @@
         <v>44608</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D59" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
@@ -2060,22 +2051,22 @@
         <v>44608</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G60" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
@@ -2083,22 +2074,22 @@
         <v>44608</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E61" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F61" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G61" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
@@ -2106,19 +2097,19 @@
         <v>44608</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
@@ -2126,19 +2117,19 @@
         <v>44608</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D63" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
@@ -2146,19 +2137,19 @@
         <v>44608</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E64" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F64" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
@@ -2166,22 +2157,22 @@
         <v>44608</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G65" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>7</v>
       </c>
@@ -2189,19 +2180,19 @@
         <v>44608</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>7</v>
       </c>
@@ -2209,22 +2200,22 @@
         <v>44608</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F67" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7</v>
       </c>
@@ -2232,22 +2223,22 @@
         <v>44608</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G68" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>7</v>
       </c>
@@ -2255,22 +2246,22 @@
         <v>44608</v>
       </c>
       <c r="C69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E69" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F69" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>7</v>
       </c>
@@ -2278,19 +2269,19 @@
         <v>44608</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7</v>
       </c>
@@ -2298,19 +2289,19 @@
         <v>44609</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E71" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F71" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7</v>
       </c>
@@ -2318,22 +2309,22 @@
         <v>44609</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G72" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7</v>
       </c>
@@ -2341,22 +2332,22 @@
         <v>44609</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F73" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G73" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7</v>
       </c>
@@ -2364,19 +2355,19 @@
         <v>44609</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7</v>
       </c>
@@ -2384,22 +2375,22 @@
         <v>44609</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G75" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7</v>
       </c>
@@ -2407,22 +2398,22 @@
         <v>44609</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G76" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7</v>
       </c>
@@ -2430,16 +2421,16 @@
         <v>44609</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E77" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F77" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
